--- a/QuantLibXL/Data/XLS/030_CapVolBootstrap/020_MarketMetaData/EUR_010_CapFloorTermVolSurface6M.xlsx
+++ b/QuantLibXL/Data/XLS/030_CapVolBootstrap/020_MarketMetaData/EUR_010_CapFloorTermVolSurface6M.xlsx
@@ -10,9 +10,6 @@
     <sheet name="General Settings" sheetId="9" r:id="rId1"/>
     <sheet name="CapFloor Term Vol Surface" sheetId="10" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BusinessDayConvention">'General Settings'!$D$18</definedName>
     <definedName name="Calendar">'General Settings'!$D$17</definedName>
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Currency</t>
   </si>
@@ -165,6 +162,9 @@
   <si>
     <t>EUR_</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -175,7 +175,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -912,22 +912,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1224,7 +1208,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="18" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="14" customWidth="1"/>
@@ -1242,8 +1226,8 @@
     <col min="27" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" s="40" customFormat="1"/>
-    <row r="2" spans="1:71" s="40" customFormat="1">
+    <row r="1" spans="1:71" s="40" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:71" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="41" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
@@ -1252,7 +1236,7 @@
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
     </row>
-    <row r="3" spans="1:71" ht="15.75">
+    <row r="3" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="67" t="s">
         <v>27</v>
@@ -1327,7 +1311,7 @@
       <c r="BR3" s="40"/>
       <c r="BS3" s="40"/>
     </row>
-    <row r="4" spans="1:71" ht="12" thickBot="1">
+    <row r="4" spans="1:71" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="27"/>
       <c r="C4" s="26"/>
@@ -1400,7 +1384,7 @@
       <c r="BR4" s="40"/>
       <c r="BS4" s="40"/>
     </row>
-    <row r="5" spans="1:71">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="27"/>
       <c r="C5" s="33" t="s">
@@ -1475,7 +1459,7 @@
       <c r="BR5" s="40"/>
       <c r="BS5" s="40"/>
     </row>
-    <row r="6" spans="1:71">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="27"/>
       <c r="C6" s="35" t="s">
@@ -1552,7 +1536,7 @@
       <c r="BR6" s="40"/>
       <c r="BS6" s="40"/>
     </row>
-    <row r="7" spans="1:71">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A7" s="40"/>
       <c r="B7" s="27"/>
       <c r="C7" s="35" t="s">
@@ -1629,7 +1613,7 @@
       <c r="BR7" s="40"/>
       <c r="BS7" s="40"/>
     </row>
-    <row r="8" spans="1:71">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="27"/>
       <c r="C8" s="35" t="s">
@@ -1706,15 +1690,14 @@
       <c r="BR8" s="40"/>
       <c r="BS8" s="40"/>
     </row>
-    <row r="9" spans="1:71">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="27"/>
       <c r="C9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="37" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\030_CapVolBootstrap\020_MarketMetaData\</v>
+      <c r="D9" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="40"/>
@@ -1784,7 +1767,7 @@
       <c r="BR9" s="40"/>
       <c r="BS9" s="40"/>
     </row>
-    <row r="10" spans="1:71" ht="12" thickBot="1">
+    <row r="10" spans="1:71" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="27"/>
       <c r="C10" s="38" t="s">
@@ -1861,7 +1844,7 @@
       <c r="BR10" s="40"/>
       <c r="BS10" s="40"/>
     </row>
-    <row r="11" spans="1:71">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
@@ -1934,8 +1917,8 @@
       <c r="BR11" s="40"/>
       <c r="BS11" s="40"/>
     </row>
-    <row r="12" spans="1:71" s="40" customFormat="1"/>
-    <row r="13" spans="1:71" ht="15.75">
+    <row r="12" spans="1:71" s="40" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="67" t="s">
         <v>32</v>
@@ -2010,7 +1993,7 @@
       <c r="BR13" s="40"/>
       <c r="BS13" s="40"/>
     </row>
-    <row r="14" spans="1:71" ht="12" thickBot="1">
+    <row r="14" spans="1:71" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
@@ -2083,7 +2066,7 @@
       <c r="BR14" s="40"/>
       <c r="BS14" s="40"/>
     </row>
-    <row r="15" spans="1:71">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="42"/>
       <c r="C15" s="2" t="s">
@@ -2160,7 +2143,7 @@
       <c r="BR15" s="40"/>
       <c r="BS15" s="40"/>
     </row>
-    <row r="16" spans="1:71">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="42"/>
       <c r="C16" s="3" t="s">
@@ -2237,7 +2220,7 @@
       <c r="BR16" s="40"/>
       <c r="BS16" s="40"/>
     </row>
-    <row r="17" spans="1:71">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A17" s="40"/>
       <c r="B17" s="42"/>
       <c r="C17" s="3" t="s">
@@ -2314,7 +2297,7 @@
       <c r="BR17" s="40"/>
       <c r="BS17" s="40"/>
     </row>
-    <row r="18" spans="1:71">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A18" s="40"/>
       <c r="B18" s="42"/>
       <c r="C18" s="3" t="s">
@@ -2391,7 +2374,7 @@
       <c r="BR18" s="40"/>
       <c r="BS18" s="40"/>
     </row>
-    <row r="19" spans="1:71">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A19" s="40"/>
       <c r="B19" s="42"/>
       <c r="C19" s="3" t="s">
@@ -2466,7 +2449,7 @@
       <c r="BR19" s="40"/>
       <c r="BS19" s="40"/>
     </row>
-    <row r="20" spans="1:71" s="18" customFormat="1">
+    <row r="20" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="40"/>
       <c r="B20" s="42"/>
       <c r="C20" s="3" t="s">
@@ -2543,7 +2526,7 @@
       <c r="BR20" s="40"/>
       <c r="BS20" s="40"/>
     </row>
-    <row r="21" spans="1:71" s="18" customFormat="1">
+    <row r="21" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="40"/>
       <c r="B21" s="42"/>
       <c r="C21" s="57" t="s">
@@ -2621,7 +2604,7 @@
       <c r="BR21" s="40"/>
       <c r="BS21" s="40"/>
     </row>
-    <row r="22" spans="1:71" s="18" customFormat="1">
+    <row r="22" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="40"/>
       <c r="B22" s="42"/>
       <c r="C22" s="3" t="s">
@@ -2699,7 +2682,7 @@
       <c r="BR22" s="40"/>
       <c r="BS22" s="40"/>
     </row>
-    <row r="23" spans="1:71" s="18" customFormat="1">
+    <row r="23" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="40"/>
       <c r="B23" s="42"/>
       <c r="C23" s="3" t="s">
@@ -2777,7 +2760,7 @@
       <c r="BR23" s="40"/>
       <c r="BS23" s="40"/>
     </row>
-    <row r="24" spans="1:71" s="18" customFormat="1">
+    <row r="24" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="40"/>
       <c r="B24" s="42"/>
       <c r="C24" s="57" t="s">
@@ -2855,7 +2838,7 @@
       <c r="BR24" s="40"/>
       <c r="BS24" s="40"/>
     </row>
-    <row r="25" spans="1:71" s="18" customFormat="1">
+    <row r="25" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="40"/>
       <c r="B25" s="42"/>
       <c r="C25" s="3" t="s">
@@ -2933,7 +2916,7 @@
       <c r="BR25" s="40"/>
       <c r="BS25" s="40"/>
     </row>
-    <row r="26" spans="1:71" s="18" customFormat="1">
+    <row r="26" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="40"/>
       <c r="B26" s="42"/>
       <c r="C26" s="58" t="s">
@@ -3011,7 +2994,7 @@
       <c r="BR26" s="40"/>
       <c r="BS26" s="40"/>
     </row>
-    <row r="27" spans="1:71" s="18" customFormat="1">
+    <row r="27" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
       <c r="B27" s="42"/>
       <c r="C27" s="3" t="s">
@@ -3089,7 +3072,7 @@
       <c r="BR27" s="40"/>
       <c r="BS27" s="40"/>
     </row>
-    <row r="28" spans="1:71" s="18" customFormat="1" ht="12" thickBot="1">
+    <row r="28" spans="1:71" s="18" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="42"/>
       <c r="C28" s="52" t="s">
@@ -3167,7 +3150,7 @@
       <c r="BR28" s="40"/>
       <c r="BS28" s="40"/>
     </row>
-    <row r="29" spans="1:71" s="18" customFormat="1">
+    <row r="29" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="40"/>
       <c r="B29" s="47"/>
       <c r="C29" s="48"/>
@@ -3240,10 +3223,10 @@
       <c r="BR29" s="40"/>
       <c r="BS29" s="40"/>
     </row>
-    <row r="30" spans="1:71" s="40" customFormat="1"/>
-    <row r="31" spans="1:71" s="40" customFormat="1"/>
-    <row r="32" spans="1:71" s="40" customFormat="1"/>
-    <row r="33" spans="20:26" s="40" customFormat="1">
+    <row r="30" spans="1:71" s="40" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:71" s="40" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:71" s="40" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="20:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T33" s="50"/>
       <c r="U33" s="50"/>
       <c r="V33" s="50"/>
@@ -3252,7 +3235,7 @@
       <c r="Y33" s="50"/>
       <c r="Z33" s="50"/>
     </row>
-    <row r="34" spans="20:26" s="40" customFormat="1">
+    <row r="34" spans="20:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T34" s="50"/>
       <c r="U34" s="50"/>
       <c r="V34" s="50"/>
@@ -3261,7 +3244,7 @@
       <c r="Y34" s="50"/>
       <c r="Z34" s="50"/>
     </row>
-    <row r="35" spans="20:26" s="40" customFormat="1">
+    <row r="35" spans="20:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T35" s="50"/>
       <c r="U35" s="50"/>
       <c r="V35" s="50"/>
@@ -3270,7 +3253,7 @@
       <c r="Y35" s="50"/>
       <c r="Z35" s="50"/>
     </row>
-    <row r="36" spans="20:26" s="40" customFormat="1">
+    <row r="36" spans="20:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T36" s="50"/>
       <c r="U36" s="50"/>
       <c r="V36" s="50"/>
@@ -3279,7 +3262,7 @@
       <c r="Y36" s="50"/>
       <c r="Z36" s="50"/>
     </row>
-    <row r="37" spans="20:26" s="40" customFormat="1">
+    <row r="37" spans="20:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T37" s="50"/>
       <c r="U37" s="50"/>
       <c r="V37" s="50"/>
@@ -3288,7 +3271,7 @@
       <c r="Y37" s="50"/>
       <c r="Z37" s="50"/>
     </row>
-    <row r="38" spans="20:26" s="40" customFormat="1">
+    <row r="38" spans="20:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T38" s="50"/>
       <c r="U38" s="50"/>
       <c r="V38" s="50"/>
@@ -3297,7 +3280,7 @@
       <c r="Y38" s="50"/>
       <c r="Z38" s="50"/>
     </row>
-    <row r="39" spans="20:26" s="40" customFormat="1">
+    <row r="39" spans="20:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T39" s="50"/>
       <c r="U39" s="50"/>
       <c r="V39" s="50"/>
@@ -3306,7 +3289,7 @@
       <c r="Y39" s="50"/>
       <c r="Z39" s="50"/>
     </row>
-    <row r="40" spans="20:26" s="40" customFormat="1">
+    <row r="40" spans="20:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T40" s="50"/>
       <c r="U40" s="50"/>
       <c r="V40" s="50"/>
@@ -3315,7 +3298,7 @@
       <c r="Y40" s="50"/>
       <c r="Z40" s="50"/>
     </row>
-    <row r="41" spans="20:26" s="40" customFormat="1">
+    <row r="41" spans="20:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T41" s="50"/>
       <c r="U41" s="50"/>
       <c r="V41" s="50"/>
@@ -3324,7 +3307,7 @@
       <c r="Y41" s="50"/>
       <c r="Z41" s="50"/>
     </row>
-    <row r="42" spans="20:26" s="40" customFormat="1">
+    <row r="42" spans="20:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T42" s="50"/>
       <c r="U42" s="50"/>
       <c r="V42" s="50"/>
@@ -3333,7 +3316,7 @@
       <c r="Y42" s="50"/>
       <c r="Z42" s="50"/>
     </row>
-    <row r="43" spans="20:26" s="40" customFormat="1">
+    <row r="43" spans="20:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T43" s="50"/>
       <c r="U43" s="50"/>
       <c r="V43" s="50"/>
@@ -3342,7 +3325,7 @@
       <c r="Y43" s="50"/>
       <c r="Z43" s="50"/>
     </row>
-    <row r="44" spans="20:26" s="40" customFormat="1">
+    <row r="44" spans="20:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T44" s="50"/>
       <c r="U44" s="50"/>
       <c r="V44" s="50"/>
@@ -3351,7 +3334,7 @@
       <c r="Y44" s="50"/>
       <c r="Z44" s="50"/>
     </row>
-    <row r="45" spans="20:26" s="40" customFormat="1">
+    <row r="45" spans="20:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T45" s="50"/>
       <c r="U45" s="50"/>
       <c r="V45" s="50"/>
@@ -3360,7 +3343,7 @@
       <c r="Y45" s="50"/>
       <c r="Z45" s="50"/>
     </row>
-    <row r="46" spans="20:26" s="40" customFormat="1">
+    <row r="46" spans="20:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T46" s="50"/>
       <c r="U46" s="50"/>
       <c r="V46" s="50"/>
@@ -3369,7 +3352,7 @@
       <c r="Y46" s="50"/>
       <c r="Z46" s="50"/>
     </row>
-    <row r="47" spans="20:26" s="40" customFormat="1">
+    <row r="47" spans="20:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T47" s="50"/>
       <c r="U47" s="50"/>
       <c r="V47" s="50"/>
@@ -3378,7 +3361,7 @@
       <c r="Y47" s="50"/>
       <c r="Z47" s="50"/>
     </row>
-    <row r="48" spans="20:26" s="40" customFormat="1">
+    <row r="48" spans="20:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T48" s="50"/>
       <c r="U48" s="50"/>
       <c r="V48" s="50"/>
@@ -3387,7 +3370,7 @@
       <c r="Y48" s="50"/>
       <c r="Z48" s="50"/>
     </row>
-    <row r="49" spans="2:26" s="40" customFormat="1">
+    <row r="49" spans="2:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T49" s="50"/>
       <c r="U49" s="50"/>
       <c r="V49" s="50"/>
@@ -3396,7 +3379,7 @@
       <c r="Y49" s="50"/>
       <c r="Z49" s="50"/>
     </row>
-    <row r="50" spans="2:26" s="40" customFormat="1">
+    <row r="50" spans="2:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T50" s="50"/>
       <c r="U50" s="50"/>
       <c r="V50" s="50"/>
@@ -3405,7 +3388,7 @@
       <c r="Y50" s="50"/>
       <c r="Z50" s="50"/>
     </row>
-    <row r="51" spans="2:26" s="40" customFormat="1">
+    <row r="51" spans="2:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T51" s="50"/>
       <c r="U51" s="50"/>
       <c r="V51" s="50"/>
@@ -3414,7 +3397,7 @@
       <c r="Y51" s="50"/>
       <c r="Z51" s="50"/>
     </row>
-    <row r="52" spans="2:26" s="40" customFormat="1">
+    <row r="52" spans="2:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T52" s="50"/>
       <c r="U52" s="50"/>
       <c r="V52" s="50"/>
@@ -3423,7 +3406,7 @@
       <c r="Y52" s="50"/>
       <c r="Z52" s="50"/>
     </row>
-    <row r="53" spans="2:26" s="40" customFormat="1">
+    <row r="53" spans="2:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T53" s="50"/>
       <c r="U53" s="50"/>
       <c r="V53" s="50"/>
@@ -3432,7 +3415,7 @@
       <c r="Y53" s="50"/>
       <c r="Z53" s="50"/>
     </row>
-    <row r="54" spans="2:26" s="40" customFormat="1">
+    <row r="54" spans="2:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T54" s="50"/>
       <c r="U54" s="50"/>
       <c r="V54" s="50"/>
@@ -3441,7 +3424,7 @@
       <c r="Y54" s="50"/>
       <c r="Z54" s="50"/>
     </row>
-    <row r="55" spans="2:26" s="40" customFormat="1">
+    <row r="55" spans="2:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T55" s="50"/>
       <c r="U55" s="50"/>
       <c r="V55" s="50"/>
@@ -3450,7 +3433,7 @@
       <c r="Y55" s="50"/>
       <c r="Z55" s="50"/>
     </row>
-    <row r="56" spans="2:26" s="40" customFormat="1">
+    <row r="56" spans="2:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T56" s="50"/>
       <c r="U56" s="50"/>
       <c r="V56" s="50"/>
@@ -3459,7 +3442,7 @@
       <c r="Y56" s="50"/>
       <c r="Z56" s="50"/>
     </row>
-    <row r="57" spans="2:26" s="40" customFormat="1">
+    <row r="57" spans="2:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T57" s="50"/>
       <c r="U57" s="50"/>
       <c r="V57" s="50"/>
@@ -3468,7 +3451,7 @@
       <c r="Y57" s="50"/>
       <c r="Z57" s="50"/>
     </row>
-    <row r="58" spans="2:26" s="40" customFormat="1">
+    <row r="58" spans="2:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T58" s="50"/>
       <c r="U58" s="50"/>
       <c r="V58" s="50"/>
@@ -3477,7 +3460,7 @@
       <c r="Y58" s="50"/>
       <c r="Z58" s="50"/>
     </row>
-    <row r="59" spans="2:26" s="40" customFormat="1">
+    <row r="59" spans="2:26" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="T59" s="50"/>
       <c r="U59" s="50"/>
       <c r="V59" s="50"/>
@@ -3486,7 +3469,7 @@
       <c r="Y59" s="50"/>
       <c r="Z59" s="50"/>
     </row>
-    <row r="60" spans="2:26" s="18" customFormat="1">
+    <row r="60" spans="2:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -3499,7 +3482,7 @@
       <c r="Y60" s="19"/>
       <c r="Z60" s="19"/>
     </row>
-    <row r="61" spans="2:26" s="18" customFormat="1">
+    <row r="61" spans="2:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
@@ -3512,7 +3495,7 @@
       <c r="Y61" s="19"/>
       <c r="Z61" s="19"/>
     </row>
-    <row r="62" spans="2:26" s="18" customFormat="1">
+    <row r="62" spans="2:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
@@ -3525,7 +3508,7 @@
       <c r="Y62" s="19"/>
       <c r="Z62" s="19"/>
     </row>
-    <row r="63" spans="2:26" s="18" customFormat="1">
+    <row r="63" spans="2:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
@@ -3538,7 +3521,7 @@
       <c r="Y63" s="19"/>
       <c r="Z63" s="19"/>
     </row>
-    <row r="64" spans="2:26" s="18" customFormat="1">
+    <row r="64" spans="2:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
@@ -3551,7 +3534,7 @@
       <c r="Y64" s="19"/>
       <c r="Z64" s="19"/>
     </row>
-    <row r="65" spans="2:35" s="18" customFormat="1">
+    <row r="65" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
@@ -3564,7 +3547,7 @@
       <c r="Y65" s="19"/>
       <c r="Z65" s="19"/>
     </row>
-    <row r="66" spans="2:35" s="18" customFormat="1">
+    <row r="66" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
@@ -3577,7 +3560,7 @@
       <c r="Y66" s="19"/>
       <c r="Z66" s="19"/>
     </row>
-    <row r="67" spans="2:35" s="18" customFormat="1">
+    <row r="67" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
@@ -3590,7 +3573,7 @@
       <c r="Y67" s="19"/>
       <c r="Z67" s="19"/>
     </row>
-    <row r="68" spans="2:35" s="18" customFormat="1">
+    <row r="68" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
@@ -3603,7 +3586,7 @@
       <c r="Y68" s="19"/>
       <c r="Z68" s="19"/>
     </row>
-    <row r="69" spans="2:35" s="18" customFormat="1">
+    <row r="69" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
@@ -3616,7 +3599,7 @@
       <c r="Y69" s="19"/>
       <c r="Z69" s="19"/>
     </row>
-    <row r="70" spans="2:35" s="18" customFormat="1">
+    <row r="70" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
@@ -3629,7 +3612,7 @@
       <c r="Y70" s="19"/>
       <c r="Z70" s="19"/>
     </row>
-    <row r="71" spans="2:35" s="18" customFormat="1">
+    <row r="71" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
@@ -3642,7 +3625,7 @@
       <c r="Y71" s="19"/>
       <c r="Z71" s="19"/>
     </row>
-    <row r="72" spans="2:35" s="18" customFormat="1">
+    <row r="72" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
@@ -3655,7 +3638,7 @@
       <c r="Y72" s="19"/>
       <c r="Z72" s="19"/>
     </row>
-    <row r="73" spans="2:35" s="18" customFormat="1">
+    <row r="73" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
@@ -3668,7 +3651,7 @@
       <c r="Y73" s="19"/>
       <c r="Z73" s="19"/>
     </row>
-    <row r="74" spans="2:35" s="18" customFormat="1">
+    <row r="74" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
@@ -3681,7 +3664,7 @@
       <c r="Y74" s="19"/>
       <c r="Z74" s="19"/>
     </row>
-    <row r="75" spans="2:35" s="18" customFormat="1">
+    <row r="75" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
@@ -3694,7 +3677,7 @@
       <c r="Y75" s="19"/>
       <c r="Z75" s="19"/>
     </row>
-    <row r="76" spans="2:35" s="18" customFormat="1">
+    <row r="76" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
@@ -3707,7 +3690,7 @@
       <c r="Y76" s="19"/>
       <c r="Z76" s="19"/>
     </row>
-    <row r="77" spans="2:35" s="18" customFormat="1">
+    <row r="77" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
@@ -3720,7 +3703,7 @@
       <c r="Y77" s="19"/>
       <c r="Z77" s="19"/>
     </row>
-    <row r="78" spans="2:35" s="18" customFormat="1">
+    <row r="78" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
@@ -3733,7 +3716,7 @@
       <c r="Y78" s="19"/>
       <c r="Z78" s="19"/>
     </row>
-    <row r="79" spans="2:35">
+    <row r="79" spans="2:35" x14ac:dyDescent="0.2">
       <c r="AA79" s="18"/>
       <c r="AB79" s="18"/>
       <c r="AC79" s="18"/>
@@ -3744,7 +3727,7 @@
       <c r="AH79" s="18"/>
       <c r="AI79" s="18"/>
     </row>
-    <row r="80" spans="2:35">
+    <row r="80" spans="2:35" x14ac:dyDescent="0.2">
       <c r="AA80" s="18"/>
       <c r="AB80" s="18"/>
       <c r="AC80" s="18"/>
@@ -3755,7 +3738,7 @@
       <c r="AH80" s="18"/>
       <c r="AI80" s="18"/>
     </row>
-    <row r="81" spans="27:35">
+    <row r="81" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA81" s="18"/>
       <c r="AB81" s="18"/>
       <c r="AC81" s="18"/>
@@ -3766,7 +3749,7 @@
       <c r="AH81" s="18"/>
       <c r="AI81" s="18"/>
     </row>
-    <row r="82" spans="27:35">
+    <row r="82" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA82" s="18"/>
       <c r="AB82" s="18"/>
       <c r="AC82" s="18"/>
@@ -3777,7 +3760,7 @@
       <c r="AH82" s="18"/>
       <c r="AI82" s="18"/>
     </row>
-    <row r="83" spans="27:35">
+    <row r="83" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA83" s="18"/>
       <c r="AB83" s="18"/>
       <c r="AC83" s="18"/>
@@ -3788,7 +3771,7 @@
       <c r="AH83" s="18"/>
       <c r="AI83" s="18"/>
     </row>
-    <row r="84" spans="27:35">
+    <row r="84" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA84" s="18"/>
       <c r="AB84" s="18"/>
       <c r="AC84" s="18"/>
@@ -3799,7 +3782,7 @@
       <c r="AH84" s="18"/>
       <c r="AI84" s="18"/>
     </row>
-    <row r="85" spans="27:35">
+    <row r="85" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA85" s="18"/>
       <c r="AB85" s="18"/>
       <c r="AC85" s="18"/>
@@ -3810,7 +3793,7 @@
       <c r="AH85" s="18"/>
       <c r="AI85" s="18"/>
     </row>
-    <row r="86" spans="27:35">
+    <row r="86" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA86" s="18"/>
       <c r="AB86" s="18"/>
       <c r="AC86" s="18"/>
@@ -3821,7 +3804,7 @@
       <c r="AH86" s="18"/>
       <c r="AI86" s="18"/>
     </row>
-    <row r="87" spans="27:35">
+    <row r="87" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA87" s="18"/>
       <c r="AB87" s="18"/>
       <c r="AC87" s="18"/>
@@ -3832,7 +3815,7 @@
       <c r="AH87" s="18"/>
       <c r="AI87" s="18"/>
     </row>
-    <row r="88" spans="27:35">
+    <row r="88" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA88" s="18"/>
       <c r="AB88" s="18"/>
       <c r="AC88" s="18"/>
@@ -3843,7 +3826,7 @@
       <c r="AH88" s="18"/>
       <c r="AI88" s="18"/>
     </row>
-    <row r="89" spans="27:35">
+    <row r="89" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA89" s="18"/>
       <c r="AB89" s="18"/>
       <c r="AC89" s="18"/>
@@ -3854,7 +3837,7 @@
       <c r="AH89" s="18"/>
       <c r="AI89" s="18"/>
     </row>
-    <row r="90" spans="27:35">
+    <row r="90" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA90" s="18"/>
       <c r="AB90" s="18"/>
       <c r="AC90" s="18"/>
@@ -3865,7 +3848,7 @@
       <c r="AH90" s="18"/>
       <c r="AI90" s="18"/>
     </row>
-    <row r="91" spans="27:35">
+    <row r="91" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA91" s="18"/>
       <c r="AB91" s="18"/>
       <c r="AC91" s="18"/>
@@ -3876,7 +3859,7 @@
       <c r="AH91" s="18"/>
       <c r="AI91" s="18"/>
     </row>
-    <row r="92" spans="27:35">
+    <row r="92" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA92" s="18"/>
       <c r="AB92" s="18"/>
       <c r="AC92" s="18"/>
@@ -3887,7 +3870,7 @@
       <c r="AH92" s="18"/>
       <c r="AI92" s="18"/>
     </row>
-    <row r="93" spans="27:35">
+    <row r="93" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA93" s="18"/>
       <c r="AB93" s="18"/>
       <c r="AC93" s="18"/>
@@ -3898,7 +3881,7 @@
       <c r="AH93" s="18"/>
       <c r="AI93" s="18"/>
     </row>
-    <row r="94" spans="27:35">
+    <row r="94" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA94" s="18"/>
       <c r="AB94" s="18"/>
       <c r="AC94" s="18"/>
@@ -3909,7 +3892,7 @@
       <c r="AH94" s="18"/>
       <c r="AI94" s="18"/>
     </row>
-    <row r="95" spans="27:35">
+    <row r="95" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA95" s="18"/>
       <c r="AB95" s="18"/>
       <c r="AC95" s="18"/>
@@ -3920,7 +3903,7 @@
       <c r="AH95" s="18"/>
       <c r="AI95" s="18"/>
     </row>
-    <row r="96" spans="27:35">
+    <row r="96" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA96" s="18"/>
       <c r="AB96" s="18"/>
       <c r="AC96" s="18"/>
@@ -3931,7 +3914,7 @@
       <c r="AH96" s="18"/>
       <c r="AI96" s="18"/>
     </row>
-    <row r="97" spans="27:35">
+    <row r="97" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA97" s="18"/>
       <c r="AB97" s="18"/>
       <c r="AC97" s="18"/>
@@ -3942,7 +3925,7 @@
       <c r="AH97" s="18"/>
       <c r="AI97" s="18"/>
     </row>
-    <row r="98" spans="27:35">
+    <row r="98" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA98" s="18"/>
       <c r="AB98" s="18"/>
       <c r="AC98" s="18"/>
@@ -3953,7 +3936,7 @@
       <c r="AH98" s="18"/>
       <c r="AI98" s="18"/>
     </row>
-    <row r="99" spans="27:35">
+    <row r="99" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA99" s="18"/>
       <c r="AB99" s="18"/>
       <c r="AC99" s="18"/>
@@ -3964,7 +3947,7 @@
       <c r="AH99" s="18"/>
       <c r="AI99" s="18"/>
     </row>
-    <row r="100" spans="27:35">
+    <row r="100" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA100" s="18"/>
       <c r="AB100" s="18"/>
       <c r="AC100" s="18"/>
@@ -3975,7 +3958,7 @@
       <c r="AH100" s="18"/>
       <c r="AI100" s="18"/>
     </row>
-    <row r="101" spans="27:35">
+    <row r="101" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA101" s="18"/>
       <c r="AB101" s="18"/>
       <c r="AC101" s="18"/>
@@ -3986,7 +3969,7 @@
       <c r="AH101" s="18"/>
       <c r="AI101" s="18"/>
     </row>
-    <row r="102" spans="27:35">
+    <row r="102" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA102" s="18"/>
       <c r="AB102" s="18"/>
       <c r="AC102" s="18"/>
@@ -3997,7 +3980,7 @@
       <c r="AH102" s="18"/>
       <c r="AI102" s="18"/>
     </row>
-    <row r="103" spans="27:35">
+    <row r="103" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA103" s="18"/>
       <c r="AB103" s="18"/>
       <c r="AC103" s="18"/>
@@ -4008,7 +3991,7 @@
       <c r="AH103" s="18"/>
       <c r="AI103" s="18"/>
     </row>
-    <row r="104" spans="27:35">
+    <row r="104" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA104" s="18"/>
       <c r="AB104" s="18"/>
       <c r="AC104" s="18"/>
@@ -4019,7 +4002,7 @@
       <c r="AH104" s="18"/>
       <c r="AI104" s="18"/>
     </row>
-    <row r="105" spans="27:35">
+    <row r="105" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA105" s="18"/>
       <c r="AB105" s="18"/>
       <c r="AC105" s="18"/>
@@ -4030,7 +4013,7 @@
       <c r="AH105" s="18"/>
       <c r="AI105" s="18"/>
     </row>
-    <row r="106" spans="27:35">
+    <row r="106" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA106" s="18"/>
       <c r="AB106" s="18"/>
       <c r="AC106" s="18"/>
@@ -4041,7 +4024,7 @@
       <c r="AH106" s="18"/>
       <c r="AI106" s="18"/>
     </row>
-    <row r="107" spans="27:35">
+    <row r="107" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA107" s="18"/>
       <c r="AB107" s="18"/>
       <c r="AC107" s="18"/>
@@ -4052,7 +4035,7 @@
       <c r="AH107" s="18"/>
       <c r="AI107" s="18"/>
     </row>
-    <row r="108" spans="27:35">
+    <row r="108" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA108" s="18"/>
       <c r="AB108" s="18"/>
       <c r="AC108" s="18"/>
@@ -4063,7 +4046,7 @@
       <c r="AH108" s="18"/>
       <c r="AI108" s="18"/>
     </row>
-    <row r="109" spans="27:35">
+    <row r="109" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA109" s="18"/>
       <c r="AB109" s="18"/>
       <c r="AC109" s="18"/>
@@ -4074,7 +4057,7 @@
       <c r="AH109" s="18"/>
       <c r="AI109" s="18"/>
     </row>
-    <row r="110" spans="27:35">
+    <row r="110" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA110" s="18"/>
       <c r="AB110" s="18"/>
       <c r="AC110" s="18"/>
@@ -4085,7 +4068,7 @@
       <c r="AH110" s="18"/>
       <c r="AI110" s="18"/>
     </row>
-    <row r="111" spans="27:35">
+    <row r="111" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA111" s="18"/>
       <c r="AB111" s="18"/>
       <c r="AC111" s="18"/>
@@ -4096,7 +4079,7 @@
       <c r="AH111" s="18"/>
       <c r="AI111" s="18"/>
     </row>
-    <row r="112" spans="27:35">
+    <row r="112" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA112" s="18"/>
       <c r="AB112" s="18"/>
       <c r="AC112" s="18"/>
@@ -4107,7 +4090,7 @@
       <c r="AH112" s="18"/>
       <c r="AI112" s="18"/>
     </row>
-    <row r="113" spans="27:35">
+    <row r="113" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA113" s="18"/>
       <c r="AB113" s="18"/>
       <c r="AC113" s="18"/>
@@ -4118,7 +4101,7 @@
       <c r="AH113" s="18"/>
       <c r="AI113" s="18"/>
     </row>
-    <row r="114" spans="27:35">
+    <row r="114" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA114" s="18"/>
       <c r="AB114" s="18"/>
       <c r="AC114" s="18"/>
@@ -4129,7 +4112,7 @@
       <c r="AH114" s="18"/>
       <c r="AI114" s="18"/>
     </row>
-    <row r="115" spans="27:35">
+    <row r="115" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA115" s="18"/>
       <c r="AB115" s="18"/>
       <c r="AC115" s="18"/>
@@ -4140,7 +4123,7 @@
       <c r="AH115" s="18"/>
       <c r="AI115" s="18"/>
     </row>
-    <row r="116" spans="27:35">
+    <row r="116" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA116" s="18"/>
       <c r="AB116" s="18"/>
       <c r="AC116" s="18"/>
@@ -4151,7 +4134,7 @@
       <c r="AH116" s="18"/>
       <c r="AI116" s="18"/>
     </row>
-    <row r="117" spans="27:35">
+    <row r="117" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA117" s="18"/>
       <c r="AB117" s="18"/>
       <c r="AC117" s="18"/>
@@ -4162,7 +4145,7 @@
       <c r="AH117" s="18"/>
       <c r="AI117" s="18"/>
     </row>
-    <row r="118" spans="27:35">
+    <row r="118" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA118" s="18"/>
       <c r="AB118" s="18"/>
       <c r="AC118" s="18"/>
@@ -4173,7 +4156,7 @@
       <c r="AH118" s="18"/>
       <c r="AI118" s="18"/>
     </row>
-    <row r="119" spans="27:35">
+    <row r="119" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA119" s="18"/>
       <c r="AB119" s="18"/>
       <c r="AC119" s="18"/>
@@ -4184,7 +4167,7 @@
       <c r="AH119" s="18"/>
       <c r="AI119" s="18"/>
     </row>
-    <row r="120" spans="27:35">
+    <row r="120" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA120" s="18"/>
       <c r="AB120" s="18"/>
       <c r="AC120" s="18"/>
@@ -4195,7 +4178,7 @@
       <c r="AH120" s="18"/>
       <c r="AI120" s="18"/>
     </row>
-    <row r="121" spans="27:35">
+    <row r="121" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA121" s="18"/>
       <c r="AB121" s="18"/>
       <c r="AC121" s="18"/>
@@ -4206,7 +4189,7 @@
       <c r="AH121" s="18"/>
       <c r="AI121" s="18"/>
     </row>
-    <row r="122" spans="27:35">
+    <row r="122" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA122" s="18"/>
       <c r="AB122" s="18"/>
       <c r="AC122" s="18"/>
@@ -4217,7 +4200,7 @@
       <c r="AH122" s="18"/>
       <c r="AI122" s="18"/>
     </row>
-    <row r="123" spans="27:35">
+    <row r="123" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA123" s="18"/>
       <c r="AB123" s="18"/>
       <c r="AC123" s="18"/>
@@ -4228,7 +4211,7 @@
       <c r="AH123" s="18"/>
       <c r="AI123" s="18"/>
     </row>
-    <row r="124" spans="27:35">
+    <row r="124" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA124" s="18"/>
       <c r="AB124" s="18"/>
       <c r="AC124" s="18"/>
@@ -4239,7 +4222,7 @@
       <c r="AH124" s="18"/>
       <c r="AI124" s="18"/>
     </row>
-    <row r="125" spans="27:35">
+    <row r="125" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA125" s="18"/>
       <c r="AB125" s="18"/>
       <c r="AC125" s="18"/>
@@ -4250,7 +4233,7 @@
       <c r="AH125" s="18"/>
       <c r="AI125" s="18"/>
     </row>
-    <row r="126" spans="27:35">
+    <row r="126" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA126" s="18"/>
       <c r="AB126" s="18"/>
       <c r="AC126" s="18"/>
@@ -4261,7 +4244,7 @@
       <c r="AH126" s="18"/>
       <c r="AI126" s="18"/>
     </row>
-    <row r="127" spans="27:35">
+    <row r="127" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA127" s="18"/>
       <c r="AB127" s="18"/>
       <c r="AC127" s="18"/>
@@ -4272,7 +4255,7 @@
       <c r="AH127" s="18"/>
       <c r="AI127" s="18"/>
     </row>
-    <row r="128" spans="27:35">
+    <row r="128" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA128" s="18"/>
       <c r="AB128" s="18"/>
       <c r="AC128" s="18"/>
@@ -4283,7 +4266,7 @@
       <c r="AH128" s="18"/>
       <c r="AI128" s="18"/>
     </row>
-    <row r="129" spans="27:35">
+    <row r="129" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA129" s="18"/>
       <c r="AB129" s="18"/>
       <c r="AC129" s="18"/>
@@ -4294,7 +4277,7 @@
       <c r="AH129" s="18"/>
       <c r="AI129" s="18"/>
     </row>
-    <row r="130" spans="27:35">
+    <row r="130" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA130" s="18"/>
       <c r="AB130" s="18"/>
       <c r="AC130" s="18"/>
@@ -4305,7 +4288,7 @@
       <c r="AH130" s="18"/>
       <c r="AI130" s="18"/>
     </row>
-    <row r="131" spans="27:35">
+    <row r="131" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA131" s="18"/>
       <c r="AB131" s="18"/>
       <c r="AC131" s="18"/>
@@ -4316,7 +4299,7 @@
       <c r="AH131" s="18"/>
       <c r="AI131" s="18"/>
     </row>
-    <row r="132" spans="27:35">
+    <row r="132" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA132" s="18"/>
       <c r="AB132" s="18"/>
       <c r="AC132" s="18"/>
@@ -4327,7 +4310,7 @@
       <c r="AH132" s="18"/>
       <c r="AI132" s="18"/>
     </row>
-    <row r="133" spans="27:35">
+    <row r="133" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA133" s="18"/>
       <c r="AB133" s="18"/>
       <c r="AC133" s="18"/>
@@ -4338,7 +4321,7 @@
       <c r="AH133" s="18"/>
       <c r="AI133" s="18"/>
     </row>
-    <row r="134" spans="27:35">
+    <row r="134" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA134" s="18"/>
       <c r="AB134" s="18"/>
       <c r="AC134" s="18"/>
@@ -4349,7 +4332,7 @@
       <c r="AH134" s="18"/>
       <c r="AI134" s="18"/>
     </row>
-    <row r="135" spans="27:35">
+    <row r="135" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA135" s="18"/>
       <c r="AB135" s="18"/>
       <c r="AC135" s="18"/>
@@ -4360,7 +4343,7 @@
       <c r="AH135" s="18"/>
       <c r="AI135" s="18"/>
     </row>
-    <row r="136" spans="27:35">
+    <row r="136" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA136" s="18"/>
       <c r="AB136" s="18"/>
       <c r="AC136" s="18"/>
@@ -4371,7 +4354,7 @@
       <c r="AH136" s="18"/>
       <c r="AI136" s="18"/>
     </row>
-    <row r="137" spans="27:35">
+    <row r="137" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA137" s="18"/>
       <c r="AB137" s="18"/>
       <c r="AC137" s="18"/>
@@ -4382,7 +4365,7 @@
       <c r="AH137" s="18"/>
       <c r="AI137" s="18"/>
     </row>
-    <row r="138" spans="27:35">
+    <row r="138" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA138" s="18"/>
       <c r="AB138" s="18"/>
       <c r="AC138" s="18"/>
@@ -4393,7 +4376,7 @@
       <c r="AH138" s="18"/>
       <c r="AI138" s="18"/>
     </row>
-    <row r="139" spans="27:35">
+    <row r="139" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA139" s="18"/>
       <c r="AB139" s="18"/>
       <c r="AC139" s="18"/>
@@ -4404,7 +4387,7 @@
       <c r="AH139" s="18"/>
       <c r="AI139" s="18"/>
     </row>
-    <row r="140" spans="27:35">
+    <row r="140" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA140" s="18"/>
       <c r="AB140" s="18"/>
       <c r="AC140" s="18"/>
@@ -4415,7 +4398,7 @@
       <c r="AH140" s="18"/>
       <c r="AI140" s="18"/>
     </row>
-    <row r="141" spans="27:35">
+    <row r="141" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA141" s="18"/>
       <c r="AB141" s="18"/>
       <c r="AC141" s="18"/>
@@ -4426,7 +4409,7 @@
       <c r="AH141" s="18"/>
       <c r="AI141" s="18"/>
     </row>
-    <row r="142" spans="27:35">
+    <row r="142" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA142" s="18"/>
       <c r="AB142" s="18"/>
       <c r="AC142" s="18"/>
@@ -4437,7 +4420,7 @@
       <c r="AH142" s="18"/>
       <c r="AI142" s="18"/>
     </row>
-    <row r="143" spans="27:35">
+    <row r="143" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA143" s="18"/>
       <c r="AB143" s="18"/>
       <c r="AC143" s="18"/>
@@ -4448,7 +4431,7 @@
       <c r="AH143" s="18"/>
       <c r="AI143" s="18"/>
     </row>
-    <row r="144" spans="27:35">
+    <row r="144" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA144" s="18"/>
       <c r="AB144" s="18"/>
       <c r="AC144" s="18"/>
@@ -4459,7 +4442,7 @@
       <c r="AH144" s="18"/>
       <c r="AI144" s="18"/>
     </row>
-    <row r="145" spans="27:35">
+    <row r="145" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA145" s="18"/>
       <c r="AB145" s="18"/>
       <c r="AC145" s="18"/>
@@ -4470,7 +4453,7 @@
       <c r="AH145" s="18"/>
       <c r="AI145" s="18"/>
     </row>
-    <row r="146" spans="27:35">
+    <row r="146" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA146" s="18"/>
       <c r="AB146" s="18"/>
       <c r="AC146" s="18"/>
@@ -4481,7 +4464,7 @@
       <c r="AH146" s="18"/>
       <c r="AI146" s="18"/>
     </row>
-    <row r="147" spans="27:35">
+    <row r="147" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA147" s="18"/>
       <c r="AB147" s="18"/>
       <c r="AC147" s="18"/>
@@ -4492,7 +4475,7 @@
       <c r="AH147" s="18"/>
       <c r="AI147" s="18"/>
     </row>
-    <row r="148" spans="27:35">
+    <row r="148" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA148" s="18"/>
       <c r="AB148" s="18"/>
       <c r="AC148" s="18"/>
@@ -4503,7 +4486,7 @@
       <c r="AH148" s="18"/>
       <c r="AI148" s="18"/>
     </row>
-    <row r="149" spans="27:35">
+    <row r="149" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA149" s="18"/>
       <c r="AB149" s="18"/>
       <c r="AC149" s="18"/>
@@ -4514,7 +4497,7 @@
       <c r="AH149" s="18"/>
       <c r="AI149" s="18"/>
     </row>
-    <row r="150" spans="27:35">
+    <row r="150" spans="27:35" x14ac:dyDescent="0.2">
       <c r="AA150" s="18"/>
       <c r="AB150" s="18"/>
       <c r="AC150" s="18"/>
@@ -4560,7 +4543,7 @@
       <selection activeCell="D3" sqref="D3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="14" customWidth="1"/>
     <col min="2" max="2" width="6" style="14" bestFit="1" customWidth="1"/>
@@ -4571,7 +4554,7 @@
     <col min="18" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" thickBot="1">
+    <row r="1" spans="1:26" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23"/>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -4590,7 +4573,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="25"/>
     </row>
-    <row r="2" spans="1:26" s="18" customFormat="1">
+    <row r="2" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -4620,7 +4603,7 @@
       <c r="Y2" s="19"/>
       <c r="Z2" s="19"/>
     </row>
-    <row r="3" spans="1:26" s="18" customFormat="1">
+    <row r="3" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="10" t="s">
         <v>23</v>
@@ -4676,7 +4659,7 @@
       <c r="Y3" s="19"/>
       <c r="Z3" s="19"/>
     </row>
-    <row r="4" spans="1:26" s="18" customFormat="1">
+    <row r="4" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="12" t="s">
         <v>14</v>
@@ -4734,7 +4717,7 @@
       <c r="Y4" s="19"/>
       <c r="Z4" s="19"/>
     </row>
-    <row r="5" spans="1:26" s="18" customFormat="1">
+    <row r="5" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="12" t="s">
         <v>15</v>
@@ -4790,7 +4773,7 @@
       <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
     </row>
-    <row r="6" spans="1:26" s="18" customFormat="1">
+    <row r="6" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="12" t="s">
         <v>16</v>
@@ -4846,7 +4829,7 @@
       <c r="Y6" s="19"/>
       <c r="Z6" s="19"/>
     </row>
-    <row r="7" spans="1:26" s="18" customFormat="1">
+    <row r="7" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="12" t="s">
         <v>17</v>
@@ -4902,7 +4885,7 @@
       <c r="Y7" s="19"/>
       <c r="Z7" s="19"/>
     </row>
-    <row r="8" spans="1:26" s="18" customFormat="1">
+    <row r="8" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>18</v>
@@ -4958,7 +4941,7 @@
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
     </row>
-    <row r="9" spans="1:26" s="18" customFormat="1">
+    <row r="9" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="12" t="s">
         <v>19</v>
@@ -5014,7 +4997,7 @@
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
     </row>
-    <row r="10" spans="1:26" s="18" customFormat="1">
+    <row r="10" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="12" t="s">
         <v>20</v>
@@ -5070,7 +5053,7 @@
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
     </row>
-    <row r="11" spans="1:26" s="18" customFormat="1">
+    <row r="11" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>6</v>
@@ -5126,7 +5109,7 @@
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
     </row>
-    <row r="12" spans="1:26" s="18" customFormat="1">
+    <row r="12" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="12" t="s">
         <v>7</v>
@@ -5182,7 +5165,7 @@
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
     </row>
-    <row r="13" spans="1:26" s="18" customFormat="1">
+    <row r="13" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="12" t="s">
         <v>8</v>
@@ -5238,7 +5221,7 @@
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
     </row>
-    <row r="14" spans="1:26" s="18" customFormat="1">
+    <row r="14" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>9</v>
@@ -5294,7 +5277,7 @@
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
     </row>
-    <row r="15" spans="1:26" s="18" customFormat="1">
+    <row r="15" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="12" t="s">
         <v>10</v>
@@ -5350,7 +5333,7 @@
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
     </row>
-    <row r="16" spans="1:26" s="18" customFormat="1" ht="12" thickBot="1">
+    <row r="16" spans="1:26" s="18" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="13" t="s">
         <v>11</v>
@@ -5406,7 +5389,7 @@
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>

--- a/QuantLibXL/Data/XLS/030_CapVolBootstrap/020_MarketMetaData/EUR_010_CapFloorTermVolSurface6M.xlsx
+++ b/QuantLibXL/Data/XLS/030_CapVolBootstrap/020_MarketMetaData/EUR_010_CapFloorTermVolSurface6M.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Currency</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>EUR_</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1696,8 +1693,9 @@
       <c r="C9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="37" t="s">
-        <v>41</v>
+      <c r="D9" s="37" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\030_CapVolBootstrap\020_MarketMetaData\</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="40"/>
@@ -2688,9 +2686,9 @@
       <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="55" t="str">
+      <c r="D23" s="55" t="e">
         <f ca="1">IF(ISERROR(EUR6MCapFloorTermAtmVol),_xll.ohRangeRetrieveError(EUR6MCapFloorTermAtmVol),_xll.ohRangeRetrieveError(D22))</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="40"/>
@@ -2922,9 +2920,9 @@
       <c r="C26" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="66" t="str">
+      <c r="D26" s="66" t="e">
         <f ca="1">IF(ISERROR(EUR6MCapTermVol),_xll.ohRangeRetrieveError(EUR6MCapTermVol),_xll.ohRangeRetrieveError(D25))</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="40"/>
@@ -3080,7 +3078,7 @@
       </c>
       <c r="D28" s="56" t="e">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(D21:D24,SerializationPath&amp;D27,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="40"/>
